--- a/Code/putexceltut_pres.xlsx
+++ b/Code/putexceltut_pres.xlsx
@@ -7,13 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Table1_Manual" sheetId="1" r:id="rId2"/>
+    <sheet name="Table1_Loops" sheetId="2" r:id="rId4"/>
+    <sheet name="Table2_Loops" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>52</t>
   </si>
@@ -22,6 +24,390 @@
   </si>
   <si>
     <t>(58.74215101569678, 79.69090031596041)</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>(59, 80)</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>(20, 41)</t>
+  </si>
+  <si>
+    <t>rep78_3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>(8, 25)</t>
+  </si>
+  <si>
+    <t>rep78_3</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>(32, 56)</t>
+  </si>
+  <si>
+    <t>rep78_3</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>(31, 54)</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>6165.3</t>
+  </si>
+  <si>
+    <t>2949.5</t>
+  </si>
+  <si>
+    <t>(5481.9, 6848.6)</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>(20.0, 22.6)</t>
+  </si>
+  <si>
+    <t>headroom</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>(2.8, 3.2)</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>(12.8, 14.7)</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>3019.5</t>
+  </si>
+  <si>
+    <t>777.2</t>
+  </si>
+  <si>
+    <t>(2839.4, 3199.5)</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>187.9</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>(182.8, 193.1)</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>39.6</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>(38.6, 40.7)</t>
+  </si>
+  <si>
+    <t>headroom</t>
+  </si>
+  <si>
+    <t>399.21</t>
+  </si>
+  <si>
+    <t>(-414.47, 1212.90)</t>
+  </si>
+  <si>
+    <t>0.331</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>216.75</t>
+  </si>
+  <si>
+    <t>(62.96, 370.54)</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>(1.29, 2.80)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>57.20</t>
+  </si>
+  <si>
+    <t>(29.13, 85.27)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>207.58</t>
+  </si>
+  <si>
+    <t>(57.81, 357.35)</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>headroom</t>
+  </si>
+  <si>
+    <t>-2.83</t>
+  </si>
+  <si>
+    <t>(-4.29, -1.37)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>(-1.05, -0.53)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>(-0.01, -0.00)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>(-0.24, -0.17)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>-0.95</t>
+  </si>
+  <si>
+    <t>(-1.16, -0.73)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>headroom</t>
+  </si>
+  <si>
+    <t>385.66</t>
+  </si>
+  <si>
+    <t>(-512.34, 1283.66)</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>250.94</t>
+  </si>
+  <si>
+    <t>(76.12, 425.75)</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>(2.51, 4.22)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>88.52</t>
+  </si>
+  <si>
+    <t>(54.91, 122.13)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>402.48</t>
+  </si>
+  <si>
+    <t>(201.62, 603.34)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>headroom</t>
+  </si>
+  <si>
+    <t>-1.92</t>
+  </si>
+  <si>
+    <t>(-3.46, -0.38)</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>-0.65</t>
+  </si>
+  <si>
+    <t>(-0.94, -0.37)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>(-0.01, -0.01)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>-0.22</t>
+  </si>
+  <si>
+    <t>(-0.26, -0.17)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>-1.05</t>
+  </si>
+  <si>
+    <t>(-1.36, -0.75)</t>
+  </si>
+  <si>
+    <t>0.000</t>
   </si>
 </sst>
 </file>
@@ -81,4 +467,450 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I13"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>